--- a/Angular-Notes2-form.xlsx
+++ b/Angular-Notes2-form.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\0-SDE-Preperation\Angular\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\0-SDE-Preperation\Angular\ANGULAR-STUDY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B3CD3A-1C07-402A-83AC-A7FBF26F3D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60778343-2922-4600-9EE2-42D72E1B30F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDF" sheetId="1" r:id="rId1"/>
     <sheet name="Reactive" sheetId="2" r:id="rId2"/>
+    <sheet name="Deployment" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="161">
   <si>
     <r>
       <t xml:space="preserve">            </t>
@@ -12709,6 +12710,24 @@
       </rPr>
       <t>&gt;</t>
     </r>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Wf-6idVVis4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vwyvMZStS54</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GhPi3xBhzrI</t>
+  </si>
+  <si>
+    <t>azure</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7ljEz52zdUM</t>
+  </si>
+  <si>
+    <t>custome web-pack for env from environment</t>
   </si>
 </sst>
 </file>
@@ -13864,8 +13883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16299,7 +16318,7 @@
   <dimension ref="A66:V148"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17463,4 +17482,45 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF4E53C-1841-4AC1-985F-234D78EF3242}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>